--- a/src/main/resources/static/download/bill/inc.xlsx
+++ b/src/main/resources/static/download/bill/inc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yin\service\erp\src\main\resources\static\download\bill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBB4844-41C0-4F31-938E-63F8708C7D9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1C13E7-F014-4FB9-9D1B-BD0901522A77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{2859713E-95B0-48B1-AF4F-88A0EC820938}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>尺码名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -446,43 +450,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0F200A-2D85-4051-806F-F8DA7C3CBA63}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
